--- a/results/FS/utilpriv.xlsx
+++ b/results/FS/utilpriv.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Prog\github\organization\PPMTF\results\FS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08A9EFE-A5DE-4ADE-9D32-FCA326B9FFC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C272E37-89F1-43AC-9D7D-EA4B77567AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="470" yWindow="1670" windowWidth="15910" windowHeight="9920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="results" sheetId="7" r:id="rId1"/>
+    <sheet name="Figure 10" sheetId="7" r:id="rId1"/>
     <sheet name="PPMTF_SGD" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="39">
   <si>
     <t xml:space="preserve"> reid_rate</t>
   </si>
@@ -78,55 +78,19 @@
     <t xml:space="preserve"> TP-TV_syn</t>
   </si>
   <si>
-    <t xml:space="preserve"> TP-MSE_syn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TP-JS_syn</t>
-  </si>
-  <si>
     <t xml:space="preserve"> TP-TV_tra</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TP-MSE_tra</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TP-JS_tra</t>
   </si>
   <si>
     <t xml:space="preserve"> TP-TV_uni</t>
   </si>
   <si>
-    <t xml:space="preserve"> TP-MSE_uni</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TP-JS_uni</t>
-  </si>
-  <si>
     <t xml:space="preserve"> TP-TV-Top50_syn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TP-MSE-Top50_syn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TP-JS-Top50_syn</t>
   </si>
   <si>
     <t xml:space="preserve"> TP-TV-Top50_tra</t>
   </si>
   <si>
-    <t xml:space="preserve"> TP-MSE-Top50_tra</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TP-JS-Top50_tra</t>
-  </si>
-  <si>
     <t xml:space="preserve"> TP-TV-Top50_uni</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TP-MSE-Top50_uni</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TP-JS-Top50_uni</t>
   </si>
   <si>
     <t xml:space="preserve"> VF-TV_syn</t>
@@ -156,24 +120,6 @@
     <t xml:space="preserve"> TM-EMD-X_uni</t>
   </si>
   <si>
-    <t xml:space="preserve"> CP-TV_syn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CP-MSE_syn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CP-JS_syn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CP-TV_uni</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CP-MSE_uni</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CP-JS_uni</t>
-  </si>
-  <si>
     <t>syntraces_Itr100.csv</t>
   </si>
   <si>
@@ -193,6 +139,12 @@
   </si>
   <si>
     <t>SGD_TK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MIA_acc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MIA_adv</t>
   </si>
   <si>
     <r>
@@ -232,7 +184,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>■ Proposal</t>
+      <t>■ PPMTF (k=10)</t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1332,7 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>PPMTF_SGD!$E$2:$E$30</c:f>
+              <c:f>PPMTF_SGD!$G$2:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -2063,7 +2015,7 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>PPMTF_SGD!$O$2:$O$30</c:f>
+              <c:f>PPMTF_SGD!$K$2:$K$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -2746,7 +2698,7 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>PPMTF_SGD!$AC$2:$AC$30</c:f>
+              <c:f>PPMTF_SGD!$S$2:$S$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -3431,7 +3383,7 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>PPMTF_SGD!$AD$2:$AD$30</c:f>
+              <c:f>PPMTF_SGD!$T$2:$T$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -4116,7 +4068,7 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>PPMTF_SGD!$Y$2:$Y$30</c:f>
+              <c:f>PPMTF_SGD!$O$2:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -4343,671 +4295,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.15000000000000002"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1200">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10904623095927908"/>
-          <c:y val="6.9620253164556958E-2"/>
-          <c:w val="0.87515241463891502"/>
-          <c:h val="0.86075949367088611"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-65F5-44FF-8E6A-DEE841522A5E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-65F5-44FF-8E6A-DEE841522A5E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-65F5-44FF-8E6A-DEE841522A5E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-65F5-44FF-8E6A-DEE841522A5E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-65F5-44FF-8E6A-DEE841522A5E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-65F5-44FF-8E6A-DEE841522A5E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-65F5-44FF-8E6A-DEE841522A5E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-65F5-44FF-8E6A-DEE841522A5E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-65F5-44FF-8E6A-DEE841522A5E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-65F5-44FF-8E6A-DEE841522A5E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-65F5-44FF-8E6A-DEE841522A5E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="18"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-65F5-44FF-8E6A-DEE841522A5E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="21"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-65F5-44FF-8E6A-DEE841522A5E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="22"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-65F5-44FF-8E6A-DEE841522A5E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="23"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-65F5-44FF-8E6A-DEE841522A5E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="26"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-65F5-44FF-8E6A-DEE841522A5E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="27"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-65F5-44FF-8E6A-DEE841522A5E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="28"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-65F5-44FF-8E6A-DEE841522A5E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>PPMTF_SGD!$AJ$2:$AJ$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>0.52708905545321605</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.42653512026884799</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20477972983356699</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.497305321630365</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.40028697694218501</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.28568478005112902</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.47535995899849898</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.40835624310125301</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.261291977963927</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.51115474746825695</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.41345531367808103</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.24381059642217501</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.45600774534002803</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.34807530072638998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.255203159908371</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.52103716400854505</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.32768587823527701</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.28665405286312501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000024-65F5-44FF-8E6A-DEE841522A5E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="40"/>
-        <c:axId val="426073960"/>
-        <c:axId val="426076256"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="426073960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="426076256"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="426076256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>CP-TV</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.1286658762978916E-2"/>
-              <c:y val="0.39867358804772929"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="426073960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5260,46 +4547,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7815,523 +7062,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>34471</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>56296</xdr:rowOff>
+      <xdr:rowOff>88046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>374383</xdr:colOff>
+      <xdr:colOff>339912</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>81527</xdr:rowOff>
+      <xdr:rowOff>113277</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8360,16 +7104,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>453571</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>213178</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>133083</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>79659</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>355333</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>16159</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8398,16 +7142,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>482332</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>225774</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>128225</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>70422</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>312643</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>181547</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8437,15 +7181,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>46264</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>8057</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>119182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>386176</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>79491</xdr:rowOff>
+      <xdr:colOff>339912</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190616</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8475,15 +7219,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>146691</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>358962</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>171920</xdr:rowOff>
+      <xdr:colOff>339912</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>140170</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8512,40 +7256,2162 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>446047</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>155763</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>58767</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>91940</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>180992</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>524564</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>151453</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="グラフ 6">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B899BC4-5CB3-4D82-8ECE-D7F3BD3F6AB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BB9E32-F306-4024-8267-989D4698080E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="721376" y="2822792"/>
+          <a:ext cx="465797" cy="271748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>IST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>249816</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>103887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>53004</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>149244</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31029830-0A8C-4969-92A0-1129343C315C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1575033" y="2820583"/>
+          <a:ext cx="465797" cy="271748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>JK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380127</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>303696</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147036</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939BBD11-420F-4ECD-B39F-0C0552CE4109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2367953" y="2818375"/>
+          <a:ext cx="586178" cy="271748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>NYC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>625284</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428473</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>143723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9361AC86-82BE-4C54-89CC-3D4C9F272A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3275719" y="2815062"/>
+          <a:ext cx="465797" cy="271748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>KL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>153724</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619521</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BF7FF5-8B8B-46B1-A107-D75629292C88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4129376" y="2812853"/>
+          <a:ext cx="465797" cy="271748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SP</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>284035</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>93949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>207604</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139306</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA9FB921-D5C8-41F9-A5A1-B85A00829CCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4922296" y="2810645"/>
+          <a:ext cx="586178" cy="271748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>TKY</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60976</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>526773</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>48749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BEB171A-2A0D-4C78-A73C-627F18540CD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="721376" y="5718392"/>
+          <a:ext cx="465797" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>IST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>252025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>55213</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>46540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92454F1E-5E8B-46D1-901D-76468C800920}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1572825" y="5716183"/>
+          <a:ext cx="463588" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>JK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>382336</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>227575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>305905</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44332</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCB9FB77-6BDA-4592-B266-75D24B8F97E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2363536" y="5713975"/>
+          <a:ext cx="583969" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>NYC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>627493</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>224262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>430682</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>41019</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98CF6D7-55B6-4352-AF3D-39CA4477C51D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3269093" y="5710662"/>
+          <a:ext cx="463589" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>KL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>155933</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>222053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>621730</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E461146-BBEB-4F57-B7DF-1132202C880C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4118333" y="5708453"/>
+          <a:ext cx="465797" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SP</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>286244</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>219845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209813</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>36602</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2566895-D393-4A16-8D42-9A812DBF2F06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4909044" y="5706245"/>
+          <a:ext cx="583969" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>TKY</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60976</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>162142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>526773</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>207499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5150FD-A2AF-41C3-B1D8-EE8D26B0B874}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="721376" y="8848942"/>
+          <a:ext cx="465797" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>IST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>252025</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>159933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>55213</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>205290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CC66830-0105-4757-94FA-EAB75A313F3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1572825" y="8846733"/>
+          <a:ext cx="463588" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>JK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>382336</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>157725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>305905</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>203082</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A41755B-D24F-4E42-B140-B40A4FA94A37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2363536" y="8844525"/>
+          <a:ext cx="583969" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>NYC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>627493</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>154412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>430682</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>199769</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BEC60E9-E662-4FD9-89DD-69189DE6C7AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3269093" y="8841212"/>
+          <a:ext cx="463589" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>KL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>155933</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>621730</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>197560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833B61B9-65A4-43D1-8BE6-239436A49939}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4118333" y="8839003"/>
+          <a:ext cx="465797" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SP</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>286244</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>149995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209813</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>195352</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB6C9A4-430B-44C7-83B9-9D744536EDCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4909044" y="8836795"/>
+          <a:ext cx="583969" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>TKY</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60976</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>155792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>526773</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>201149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A96A595-EF13-4BCD-A4E0-ECF0B6B2E835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="721376" y="12042992"/>
+          <a:ext cx="465797" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>IST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>252025</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>153583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>55213</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>198940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935B2B00-313E-4DFC-B656-BE1F33855F55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1572825" y="12040783"/>
+          <a:ext cx="463588" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>JK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>382336</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>151375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>305905</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>196732</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5944B978-5971-457A-975E-BB4F82E81CBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2363536" y="12038575"/>
+          <a:ext cx="583969" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>NYC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>627493</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>148062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>430682</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>193419</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DCE7683-ACE3-44C5-ADEB-E0ECC40D68B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3269093" y="12035262"/>
+          <a:ext cx="463589" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>KL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>155933</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>145853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>621730</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>191210</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34EAA744-BBC9-4AA4-88FF-FA03D118F41A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4118333" y="12033053"/>
+          <a:ext cx="465797" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SP</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>286244</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>143645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209813</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>189002</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C35AB98-8B5B-41EB-A17D-7E0E0BFD1E55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4909044" y="12030845"/>
+          <a:ext cx="583969" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>TKY</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60976</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>124042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>526773</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>169399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D856E22-BD01-4F73-BF80-5651A212E77F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="721376" y="14983042"/>
+          <a:ext cx="465797" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>IST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>252025</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>121833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>55213</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>167190</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBC6649-43D7-45F7-8F2E-062BAD871E3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1572825" y="14980833"/>
+          <a:ext cx="463588" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>JK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>382336</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>119625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>305905</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>164982</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D77F6CE8-29EC-4A70-8400-1329B61A2AC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2363536" y="14978625"/>
+          <a:ext cx="583969" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>NYC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>627493</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>116312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>430682</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>161669</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F8C957C-F76E-4AED-B6AD-F585E5E22199}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3269093" y="14975312"/>
+          <a:ext cx="463589" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>KL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>155933</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>621730</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>159460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18BAB2C5-2ADB-4A47-859A-52B6F119F827}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4118333" y="14973103"/>
+          <a:ext cx="465797" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SP</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>286244</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>111895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209813</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>157252</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EEF3833-1598-419E-A049-C0DA5B79FF20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4909044" y="14970895"/>
+          <a:ext cx="583969" cy="273957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>TKY</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8856,7 +9722,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -8868,7 +9734,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD5A452-481E-477C-BFE1-1C04CAA885FC}">
-  <dimension ref="A1:AP30"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -8876,11 +9742,12 @@
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2"/>
-    <col min="29" max="30" width="8.6640625" style="2"/>
+    <col min="4" max="5" width="8.6640625" style="3"/>
+    <col min="15" max="15" width="8.6640625" style="2"/>
+    <col min="19" max="20" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -8891,1940 +9758,1251 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="G2" s="3">
         <v>0.53754735364578399</v>
       </c>
+      <c r="K2" s="3">
+        <v>0.204832670976418</v>
+      </c>
       <c r="O2" s="3">
-        <v>0.204832670976418</v>
-      </c>
-      <c r="Y2" s="3">
         <v>0.559537190898868</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="S2" s="3">
         <v>2.2041234009818198</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="T2" s="3">
         <v>2.4292584680856302</v>
       </c>
-      <c r="AJ2" s="3">
-        <v>0.52708905545321605</v>
-      </c>
     </row>
-    <row r="3" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
         <v>0.29177428683776402</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4.6195504066640497E-3</v>
-      </c>
-      <c r="G3" s="3">
-        <v>8.2708822315213495E-2</v>
       </c>
       <c r="H3" s="3">
         <v>8.8599019380359703E-2</v>
       </c>
       <c r="I3" s="3">
-        <v>1.8890494167875301E-4</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1.39561170119784E-2</v>
+        <v>0.53754735364578399</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K3" s="3">
-        <v>0.53754735364578399</v>
+        <v>9.6154391404048398E-2</v>
       </c>
       <c r="L3" s="3">
-        <v>9.5090972714537095E-3</v>
+        <v>2.1998390669408799E-2</v>
       </c>
       <c r="M3" s="3">
-        <v>0.23289470782610699</v>
+        <v>0.204832670976418</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O3" s="3">
-        <v>9.6154391404048398E-2</v>
+        <v>0.47634829681615598</v>
       </c>
       <c r="P3" s="3">
-        <v>4.1044948620874702E-3</v>
+        <v>8.7020883333742804E-2</v>
       </c>
       <c r="Q3" s="3">
-        <v>2.2059639122320202E-2</v>
-      </c>
-      <c r="R3" s="3">
-        <v>2.1998390669408799E-2</v>
+        <v>0.559537190898868</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S3" s="3">
-        <v>1.22565722833588E-4</v>
+        <v>0.96921836729901401</v>
       </c>
       <c r="T3" s="3">
-        <v>1.51927277114328E-3</v>
+        <v>0.93393065748790505</v>
       </c>
       <c r="U3" s="3">
-        <v>0.204832670976418</v>
+        <v>0.62817319079049105</v>
       </c>
       <c r="V3" s="3">
-        <v>8.9035679068923297E-3</v>
+        <v>0.47200331134284401</v>
       </c>
       <c r="W3" s="3">
-        <v>0.10035288204944599</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>0.47634829681615598</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>8.7020883333742804E-2</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>0.559537190898868</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>0.96921836729901401</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>0.93393065748790505</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>0.62817319079049105</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>0.47200331134284401</v>
-      </c>
-      <c r="AG3" s="3">
         <v>2.2041234009818198</v>
       </c>
-      <c r="AH3" s="3">
+      <c r="X3" s="3">
         <v>2.4292584680856302</v>
       </c>
-      <c r="AI3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ3" s="3">
-        <v>0.42653512026884799</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>6.1960757318194198E-3</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>0.13008343559926</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>0.52708905545321605</v>
-      </c>
-      <c r="AN3" s="3">
-        <v>9.1151126802982898E-3</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>0.20357686145370099</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
         <v>0.37537214706123601</v>
-      </c>
-      <c r="F4" s="3">
-        <v>6.9456710523037903E-3</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.14038987472905101</v>
       </c>
       <c r="H4" s="3">
         <v>8.8599019380359703E-2</v>
       </c>
       <c r="I4" s="3">
-        <v>1.8890494167875301E-4</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1.39561170119784E-2</v>
+        <v>0.53754735364578399</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K4" s="3">
-        <v>0.53754735364578399</v>
+        <v>0.132444228812505</v>
       </c>
       <c r="L4" s="3">
-        <v>9.5090972714537095E-3</v>
+        <v>2.1998390669408799E-2</v>
       </c>
       <c r="M4" s="3">
-        <v>0.23289470782610699</v>
+        <v>0.204832670976418</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O4" s="3">
-        <v>0.132444228812505</v>
+        <v>0.16021529044130001</v>
       </c>
       <c r="P4" s="3">
-        <v>6.3480892140334701E-3</v>
+        <v>8.7020883333742804E-2</v>
       </c>
       <c r="Q4" s="3">
-        <v>4.6744121786565701E-2</v>
-      </c>
-      <c r="R4" s="3">
-        <v>2.1998390669408799E-2</v>
+        <v>0.559537190898868</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S4" s="3">
-        <v>1.22565722833588E-4</v>
+        <v>0.87574465613119501</v>
       </c>
       <c r="T4" s="3">
-        <v>1.51927277114328E-3</v>
+        <v>0.72825375737223796</v>
       </c>
       <c r="U4" s="3">
-        <v>0.204832670976418</v>
+        <v>0.62817319079049105</v>
       </c>
       <c r="V4" s="3">
-        <v>8.9035679068923297E-3</v>
+        <v>0.47200331134284401</v>
       </c>
       <c r="W4" s="3">
-        <v>0.10035288204944599</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>0.16021529044130001</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>8.7020883333742804E-2</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>0.559537190898868</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>0.87574465613119501</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>0.72825375737223796</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>0.62817319079049105</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>0.47200331134284401</v>
-      </c>
-      <c r="AG4" s="3">
         <v>2.2041234009818198</v>
       </c>
-      <c r="AH4" s="3">
+      <c r="X4" s="3">
         <v>2.4292584680856302</v>
       </c>
-      <c r="AI4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>0.20477972983356699</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>2.8737946546705802E-3</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>3.3416213741597998E-2</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>0.52708905545321605</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>9.1151126802982898E-3</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>0.20357686145370099</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="5" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="3">
         <v>8.8599019380359703E-2</v>
       </c>
+      <c r="K5" s="3">
+        <v>2.1998390669408799E-2</v>
+      </c>
       <c r="O5" s="3">
-        <v>2.1998390669408799E-2</v>
-      </c>
-      <c r="Y5" s="3">
         <v>8.7020883333742804E-2</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="S5" s="3">
         <v>0.62817319079049105</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="T5" s="3">
         <v>0.47200331134284401</v>
       </c>
     </row>
-    <row r="6" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="Y6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="O6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="3">
         <v>0.55240523435431099</v>
       </c>
+      <c r="K7" s="3">
+        <v>0.19584075539878801</v>
+      </c>
       <c r="O7" s="3">
-        <v>0.19584075539878801</v>
-      </c>
-      <c r="Y7" s="3">
         <v>0.68960150618146099</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="S7" s="3">
         <v>4.1687065128645102</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="T7" s="3">
         <v>3.4872401956087402</v>
       </c>
-      <c r="AJ7" s="3">
-        <v>0.497305321630365</v>
-      </c>
     </row>
-    <row r="8" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
         <v>0.46070771580242598</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4.3048327372107297E-3</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.18416989319159699</v>
       </c>
       <c r="H8" s="3">
         <v>0.205323839007475</v>
       </c>
       <c r="I8" s="3">
-        <v>1.4442616429573001E-3</v>
-      </c>
-      <c r="J8" s="3">
-        <v>6.1387499131547403E-2</v>
+        <v>0.55240523435431099</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
-        <v>0.55240523435431099</v>
+        <v>0.13746053267275299</v>
       </c>
       <c r="L8" s="3">
-        <v>6.18535226204402E-3</v>
+        <v>5.4127535831520801E-2</v>
       </c>
       <c r="M8" s="3">
-        <v>0.24861069969034599</v>
+        <v>0.19584075539878801</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="3">
-        <v>0.13746053267275299</v>
+        <v>0.62050804868696197</v>
       </c>
       <c r="P8" s="3">
-        <v>3.33919270311543E-3</v>
+        <v>0.19609727693376</v>
       </c>
       <c r="Q8" s="3">
-        <v>4.80025301776471E-2</v>
-      </c>
-      <c r="R8" s="3">
-        <v>5.4127535831520801E-2</v>
+        <v>0.68960150618146099</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S8" s="3">
-        <v>9.9587702865134502E-4</v>
+        <v>2.9194762902671898</v>
       </c>
       <c r="T8" s="3">
-        <v>1.13080209022677E-2</v>
+        <v>2.5153614816840899</v>
       </c>
       <c r="U8" s="3">
-        <v>0.19584075539878801</v>
+        <v>1.09310702498659</v>
       </c>
       <c r="V8" s="3">
-        <v>5.4591372981684701E-3</v>
+        <v>1.0257628881493099</v>
       </c>
       <c r="W8" s="3">
-        <v>9.3738329022990896E-2</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0.62050804868696197</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0.19609727693376</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>0.68960150618146099</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>2.9194762902671898</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>2.5153614816840899</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>1.09310702498659</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>1.0257628881493099</v>
-      </c>
-      <c r="AG8" s="3">
         <v>4.1687065128645102</v>
       </c>
-      <c r="AH8" s="3">
+      <c r="X8" s="3">
         <v>3.4872401956087402</v>
       </c>
-      <c r="AI8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>0.40028697694218501</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>6.0313620080481804E-3</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>0.116980494784547</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>0.497305321630365</v>
-      </c>
-      <c r="AN8" s="3">
-        <v>8.7092549126896804E-3</v>
-      </c>
-      <c r="AO8" s="3">
-        <v>0.189606632545432</v>
-      </c>
-      <c r="AP8" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="9" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
         <v>0.51811704308592599</v>
-      </c>
-      <c r="F9" s="3">
-        <v>6.4437512426486297E-3</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.229531493098766</v>
       </c>
       <c r="H9" s="3">
         <v>0.205323839007475</v>
       </c>
       <c r="I9" s="3">
-        <v>1.4442616429573001E-3</v>
-      </c>
-      <c r="J9" s="3">
-        <v>6.1387499131547403E-2</v>
+        <v>0.55240523435431099</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
-        <v>0.55240523435431099</v>
+        <v>0.151789326009095</v>
       </c>
       <c r="L9" s="3">
-        <v>6.18535226204402E-3</v>
+        <v>5.4127535831520801E-2</v>
       </c>
       <c r="M9" s="3">
-        <v>0.24861069969034599</v>
+        <v>0.19584075539878801</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="3">
-        <v>0.151789326009095</v>
+        <v>0.32901700943096401</v>
       </c>
       <c r="P9" s="3">
-        <v>3.9984728770448901E-3</v>
+        <v>0.19609727693376</v>
       </c>
       <c r="Q9" s="3">
-        <v>5.9689392444233998E-2</v>
-      </c>
-      <c r="R9" s="3">
-        <v>5.4127535831520801E-2</v>
+        <v>0.68960150618146099</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S9" s="3">
-        <v>9.9587702865134502E-4</v>
+        <v>1.32939937865137</v>
       </c>
       <c r="T9" s="3">
-        <v>1.13080209022677E-2</v>
+        <v>1.1405604091106201</v>
       </c>
       <c r="U9" s="3">
-        <v>0.19584075539878801</v>
+        <v>1.09310702498659</v>
       </c>
       <c r="V9" s="3">
-        <v>5.4591372981684701E-3</v>
+        <v>1.0257628881493099</v>
       </c>
       <c r="W9" s="3">
-        <v>9.3738329022990896E-2</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0.32901700943096401</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0.19609727693376</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>0.68960150618146099</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>1.32939937865137</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>1.1405604091106201</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>1.09310702498659</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>1.0257628881493099</v>
-      </c>
-      <c r="AG9" s="3">
         <v>4.1687065128645102</v>
       </c>
-      <c r="AH9" s="3">
+      <c r="X9" s="3">
         <v>3.4872401956087402</v>
       </c>
-      <c r="AI9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ9" s="3">
-        <v>0.28568478005112902</v>
-      </c>
-      <c r="AK9" s="3">
-        <v>6.4589996196965102E-3</v>
-      </c>
-      <c r="AL9" s="3">
-        <v>6.79708627389774E-2</v>
-      </c>
-      <c r="AM9" s="3">
-        <v>0.497305321630365</v>
-      </c>
-      <c r="AN9" s="3">
-        <v>8.7092549126896804E-3</v>
-      </c>
-      <c r="AO9" s="3">
-        <v>0.189606632545432</v>
-      </c>
-      <c r="AP9" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="10" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="G10" s="3">
         <v>0.205323839007475</v>
       </c>
+      <c r="K10" s="3">
+        <v>5.4127535831520801E-2</v>
+      </c>
       <c r="O10" s="3">
-        <v>5.4127535831520801E-2</v>
-      </c>
-      <c r="Y10" s="3">
         <v>0.19609727693376</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="S10" s="3">
         <v>1.09310702498659</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="T10" s="3">
         <v>1.0257628881493099</v>
       </c>
     </row>
-    <row r="11" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="Y11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
+    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="O11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="3">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="3">
         <v>0.56118178321892098</v>
       </c>
+      <c r="K12" s="3">
+        <v>0.210125317563018</v>
+      </c>
       <c r="O12" s="3">
-        <v>0.210125317563018</v>
-      </c>
-      <c r="Y12" s="3">
         <v>0.73190639001556801</v>
       </c>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AC12" s="3">
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="S12" s="3">
         <v>2.0697579249416802</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="T12" s="3">
         <v>1.8467159583946999</v>
       </c>
-      <c r="AJ12" s="3">
-        <v>0.47535995899849898</v>
-      </c>
     </row>
-    <row r="13" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3">
         <v>0.48591990328292201</v>
-      </c>
-      <c r="F13" s="3">
-        <v>8.8496726169994093E-3</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.208009020375441</v>
       </c>
       <c r="H13" s="3">
         <v>0.26446066009517999</v>
       </c>
       <c r="I13" s="3">
-        <v>2.3125401544698602E-3</v>
-      </c>
-      <c r="J13" s="3">
-        <v>9.8508122315164995E-2</v>
+        <v>0.56118178321892098</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K13" s="3">
-        <v>0.56118178321892098</v>
+        <v>0.16371542309499901</v>
       </c>
       <c r="L13" s="3">
-        <v>1.08313021345482E-2</v>
+        <v>7.4863218832386003E-2</v>
       </c>
       <c r="M13" s="3">
-        <v>0.26790501789620602</v>
+        <v>0.210125317563018</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O13" s="3">
-        <v>0.16371542309499901</v>
+        <v>0.70409155474567597</v>
       </c>
       <c r="P13" s="3">
-        <v>7.9313512596124996E-3</v>
+        <v>0.28340322926254402</v>
       </c>
       <c r="Q13" s="3">
-        <v>6.5462999298506394E-2</v>
-      </c>
-      <c r="R13" s="3">
-        <v>7.4863218832386003E-2</v>
+        <v>0.73190639001556801</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S13" s="3">
-        <v>1.5630989553937001E-3</v>
+        <v>1.6662983227449499</v>
       </c>
       <c r="T13" s="3">
-        <v>2.6235536304011299E-2</v>
+        <v>1.5148025710263999</v>
       </c>
       <c r="U13" s="3">
-        <v>0.210125317563018</v>
+        <v>0.67981430886965799</v>
       </c>
       <c r="V13" s="3">
-        <v>1.01549479132646E-2</v>
+        <v>0.58704486104321696</v>
       </c>
       <c r="W13" s="3">
-        <v>0.104872122899227</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>0.70409155474567597</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>0.28340322926254402</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>0.73190639001556801</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>1.6662983227449499</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>1.5148025710263999</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>0.67981430886965799</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>0.58704486104321696</v>
-      </c>
-      <c r="AG13" s="3">
         <v>2.0697579249416802</v>
       </c>
-      <c r="AH13" s="3">
+      <c r="X13" s="3">
         <v>1.8467159583946999</v>
       </c>
-      <c r="AI13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ13" s="3">
-        <v>0.40835624310125301</v>
-      </c>
-      <c r="AK13" s="3">
-        <v>6.2433806216186799E-3</v>
-      </c>
-      <c r="AL13" s="3">
-        <v>0.12757601792937501</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>0.47535995899849898</v>
-      </c>
-      <c r="AN13" s="3">
-        <v>7.7763929488894002E-3</v>
-      </c>
-      <c r="AO13" s="3">
-        <v>0.17023429542277299</v>
-      </c>
-      <c r="AP13" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="14" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>0.48756479971660199</v>
-      </c>
-      <c r="F14" s="3">
-        <v>5.6595165918227599E-3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.211947828590239</v>
       </c>
       <c r="H14" s="3">
         <v>0.26446066009517999</v>
       </c>
       <c r="I14" s="3">
-        <v>2.3125401544698602E-3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>9.8508122315164995E-2</v>
+        <v>0.56118178321892098</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
-        <v>0.56118178321892098</v>
+        <v>0.14401187806622201</v>
       </c>
       <c r="L14" s="3">
-        <v>1.08313021345482E-2</v>
+        <v>7.4863218832386003E-2</v>
       </c>
       <c r="M14" s="3">
-        <v>0.26790501789620602</v>
+        <v>0.210125317563018</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O14" s="3">
-        <v>0.14401187806622201</v>
+        <v>0.44423346313484702</v>
       </c>
       <c r="P14" s="3">
-        <v>4.5722874671804397E-3</v>
+        <v>0.28340322926254402</v>
       </c>
       <c r="Q14" s="3">
-        <v>5.2160637122289202E-2</v>
-      </c>
-      <c r="R14" s="3">
-        <v>7.4863218832386003E-2</v>
+        <v>0.73190639001556801</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
-        <v>1.5630989553937001E-3</v>
+        <v>0.66156085473157999</v>
       </c>
       <c r="T14" s="3">
-        <v>2.6235536304011299E-2</v>
+        <v>0.58987287365360797</v>
       </c>
       <c r="U14" s="3">
-        <v>0.210125317563018</v>
+        <v>0.67981430886965799</v>
       </c>
       <c r="V14" s="3">
-        <v>1.01549479132646E-2</v>
+        <v>0.58704486104321696</v>
       </c>
       <c r="W14" s="3">
-        <v>0.104872122899227</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0.44423346313484702</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0.28340322926254402</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0.73190639001556801</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>0.66156085473157999</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>0.58987287365360797</v>
-      </c>
-      <c r="AE14" s="3">
-        <v>0.67981430886965799</v>
-      </c>
-      <c r="AF14" s="3">
-        <v>0.58704486104321696</v>
-      </c>
-      <c r="AG14" s="3">
         <v>2.0697579249416802</v>
       </c>
-      <c r="AH14" s="3">
+      <c r="X14" s="3">
         <v>1.8467159583946999</v>
       </c>
-      <c r="AI14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ14" s="3">
-        <v>0.261291977963927</v>
-      </c>
-      <c r="AK14" s="3">
-        <v>3.50801872811572E-3</v>
-      </c>
-      <c r="AL14" s="3">
-        <v>7.2019524707597704E-2</v>
-      </c>
-      <c r="AM14" s="3">
-        <v>0.47535995899849898</v>
-      </c>
-      <c r="AN14" s="3">
-        <v>7.7763929488894002E-3</v>
-      </c>
-      <c r="AO14" s="3">
-        <v>0.17023429542277299</v>
-      </c>
-      <c r="AP14" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="15" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="3">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="G15" s="3">
         <v>0.26446066009517999</v>
       </c>
+      <c r="K15" s="3">
+        <v>7.4863218832386003E-2</v>
+      </c>
       <c r="O15" s="3">
-        <v>7.4863218832386003E-2</v>
-      </c>
-      <c r="Y15" s="3">
         <v>0.28340322926254402</v>
       </c>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AC15" s="3">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="S15" s="3">
         <v>0.67981430886965799</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="T15" s="3">
         <v>0.58704486104321696</v>
       </c>
     </row>
-    <row r="17" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="3">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="G17" s="3">
         <v>0.55807755684295801</v>
       </c>
+      <c r="K17" s="3">
+        <v>0.20625608667749001</v>
+      </c>
       <c r="O17" s="3">
-        <v>0.20625608667749001</v>
-      </c>
-      <c r="Y17" s="3">
         <v>0.56767812469924395</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="S17" s="3">
         <v>3.3861552272641799</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="T17" s="3">
         <v>4.80655318114583</v>
       </c>
-      <c r="AJ17" s="3">
-        <v>0.51115474746825695</v>
-      </c>
     </row>
-    <row r="18" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="3">
-        <v>0</v>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>0.44888582989159997</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4.5876452675806499E-3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.17701913449572099</v>
       </c>
       <c r="H18" s="3">
         <v>0.202408419688349</v>
       </c>
       <c r="I18" s="3">
-        <v>1.4091169219972899E-3</v>
-      </c>
-      <c r="J18" s="3">
-        <v>5.8829510837276798E-2</v>
+        <v>0.55807755684295801</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K18" s="3">
-        <v>0.55807755684295801</v>
+        <v>0.141071870545985</v>
       </c>
       <c r="L18" s="3">
-        <v>7.4286938864310198E-3</v>
+        <v>5.5403141645172703E-2</v>
       </c>
       <c r="M18" s="3">
-        <v>0.25460909784053198</v>
+        <v>0.20625608667749001</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="3">
-        <v>0.141071870545985</v>
+        <v>0.525651697607455</v>
       </c>
       <c r="P18" s="3">
-        <v>3.5436566954348599E-3</v>
+        <v>0.17591009150578399</v>
       </c>
       <c r="Q18" s="3">
-        <v>4.7956570859295299E-2</v>
-      </c>
-      <c r="R18" s="3">
-        <v>5.5403141645172703E-2</v>
+        <v>0.56767812469924395</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S18" s="3">
-        <v>1.03081810503517E-3</v>
+        <v>2.3842424945268501</v>
       </c>
       <c r="T18" s="3">
-        <v>1.35370472927989E-2</v>
+        <v>3.25100391209586</v>
       </c>
       <c r="U18" s="3">
-        <v>0.20625608667749001</v>
+        <v>1.2518211091943101</v>
       </c>
       <c r="V18" s="3">
-        <v>6.7264763517677602E-3</v>
+        <v>1.57205128846</v>
       </c>
       <c r="W18" s="3">
-        <v>0.101098075144489</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0.525651697607455</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>0.17591009150578399</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>0.56767812469924395</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>2.3842424945268501</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>3.25100391209586</v>
-      </c>
-      <c r="AE18" s="3">
-        <v>1.2518211091943101</v>
-      </c>
-      <c r="AF18" s="3">
-        <v>1.57205128846</v>
-      </c>
-      <c r="AG18" s="3">
         <v>3.3861552272641799</v>
       </c>
-      <c r="AH18" s="3">
+      <c r="X18" s="3">
         <v>4.80655318114583</v>
       </c>
-      <c r="AI18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ18" s="3">
-        <v>0.41345531367808103</v>
-      </c>
-      <c r="AK18" s="3">
-        <v>5.6881412223451101E-3</v>
-      </c>
-      <c r="AL18" s="3">
-        <v>0.13496641661721701</v>
-      </c>
-      <c r="AM18" s="3">
-        <v>0.51115474746825695</v>
-      </c>
-      <c r="AN18" s="3">
-        <v>9.1986847528723308E-3</v>
-      </c>
-      <c r="AO18" s="3">
-        <v>0.21057922286133399</v>
-      </c>
-      <c r="AP18" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="19" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3">
         <v>0.47260047829148999</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5.1699038720860397E-3</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.19374235775628201</v>
       </c>
       <c r="H19" s="3">
         <v>0.202408419688349</v>
       </c>
       <c r="I19" s="3">
-        <v>1.4091169219972899E-3</v>
-      </c>
-      <c r="J19" s="3">
-        <v>5.8829510837276798E-2</v>
+        <v>0.55807755684295801</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K19" s="3">
-        <v>0.55807755684295801</v>
+        <v>0.151304693163437</v>
       </c>
       <c r="L19" s="3">
-        <v>7.4286938864310198E-3</v>
+        <v>5.5403141645172703E-2</v>
       </c>
       <c r="M19" s="3">
-        <v>0.25460909784053198</v>
+        <v>0.20625608667749001</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O19" s="3">
-        <v>0.151304693163437</v>
+        <v>0.29729069671712799</v>
       </c>
       <c r="P19" s="3">
-        <v>3.98333897064586E-3</v>
+        <v>0.17591009150578399</v>
       </c>
       <c r="Q19" s="3">
-        <v>5.3582520880240299E-2</v>
-      </c>
-      <c r="R19" s="3">
-        <v>5.5403141645172703E-2</v>
+        <v>0.56767812469924395</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S19" s="3">
-        <v>1.03081810503517E-3</v>
+        <v>1.3051332207013899</v>
       </c>
       <c r="T19" s="3">
-        <v>1.35370472927989E-2</v>
+        <v>1.6450635080726199</v>
       </c>
       <c r="U19" s="3">
-        <v>0.20625608667749001</v>
+        <v>1.2518211091943101</v>
       </c>
       <c r="V19" s="3">
-        <v>6.7264763517677602E-3</v>
+        <v>1.57205128846</v>
       </c>
       <c r="W19" s="3">
-        <v>0.101098075144489</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>0.29729069671712799</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>0.17591009150578399</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>0.56767812469924395</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC19" s="3">
-        <v>1.3051332207013899</v>
-      </c>
-      <c r="AD19" s="3">
-        <v>1.6450635080726199</v>
-      </c>
-      <c r="AE19" s="3">
-        <v>1.2518211091943101</v>
-      </c>
-      <c r="AF19" s="3">
-        <v>1.57205128846</v>
-      </c>
-      <c r="AG19" s="3">
         <v>3.3861552272641799</v>
       </c>
-      <c r="AH19" s="3">
+      <c r="X19" s="3">
         <v>4.80655318114583</v>
       </c>
-      <c r="AI19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ19" s="3">
-        <v>0.24381059642217501</v>
-      </c>
-      <c r="AK19" s="3">
-        <v>2.9493955878411001E-3</v>
-      </c>
-      <c r="AL19" s="3">
-        <v>5.9902270141298099E-2</v>
-      </c>
-      <c r="AM19" s="3">
-        <v>0.51115474746825695</v>
-      </c>
-      <c r="AN19" s="3">
-        <v>9.1986847528723308E-3</v>
-      </c>
-      <c r="AO19" s="3">
-        <v>0.21057922286133399</v>
-      </c>
-      <c r="AP19" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="20" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="3">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="3">
         <v>0.202408419688349</v>
       </c>
+      <c r="K20" s="3">
+        <v>5.5403141645172703E-2</v>
+      </c>
       <c r="O20" s="3">
-        <v>5.5403141645172703E-2</v>
-      </c>
-      <c r="Y20" s="3">
         <v>0.17591009150578399</v>
       </c>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AC20" s="3">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="S20" s="3">
         <v>1.2518211091943101</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="T20" s="3">
         <v>1.57205128846</v>
       </c>
     </row>
-    <row r="21" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
+    <row r="21" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="3">
         <v>0.55608272259862601</v>
       </c>
+      <c r="K22" s="3">
+        <v>0.197418938458748</v>
+      </c>
       <c r="O22" s="3">
-        <v>0.197418938458748</v>
-      </c>
-      <c r="Y22" s="3">
         <v>0.67509642556461102</v>
       </c>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AC22" s="3">
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="S22" s="3">
         <v>2.5638186788913999</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="T22" s="3">
         <v>3.2434032856136801</v>
       </c>
-      <c r="AJ22" s="3">
-        <v>0.45600774534002803</v>
-      </c>
     </row>
-    <row r="23" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="3">
-        <v>0</v>
+      <c r="C23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3">
         <v>0.46241692692007702</v>
-      </c>
-      <c r="F23" s="3">
-        <v>7.5318354330742602E-3</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.18522627747722101</v>
       </c>
       <c r="H23" s="3">
         <v>0.26232787166267302</v>
       </c>
       <c r="I23" s="3">
-        <v>1.5557969268599301E-3</v>
-      </c>
-      <c r="J23" s="3">
-        <v>8.7673763528328105E-2</v>
+        <v>0.55608272259862601</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K23" s="3">
-        <v>0.55608272259862601</v>
+        <v>0.14880032120758799</v>
       </c>
       <c r="L23" s="3">
-        <v>9.5440149869375299E-3</v>
+        <v>6.5850652868033002E-2</v>
       </c>
       <c r="M23" s="3">
-        <v>0.25718878270303602</v>
+        <v>0.197418938458748</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="3">
-        <v>0.14880032120758799</v>
+        <v>0.64101123420491002</v>
       </c>
       <c r="P23" s="3">
-        <v>6.5499084768836204E-3</v>
+        <v>0.31691085878444702</v>
       </c>
       <c r="Q23" s="3">
-        <v>5.4810258345328801E-2</v>
-      </c>
-      <c r="R23" s="3">
-        <v>6.5850652868033002E-2</v>
+        <v>0.67509642556461102</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S23" s="3">
-        <v>7.8501317932109095E-4</v>
+        <v>2.0199418246720402</v>
       </c>
       <c r="T23" s="3">
-        <v>1.6928548406183502E-2</v>
+        <v>2.55239861662595</v>
       </c>
       <c r="U23" s="3">
-        <v>0.197418938458748</v>
+        <v>0.75276616020587594</v>
       </c>
       <c r="V23" s="3">
-        <v>8.8244388107873908E-3</v>
+        <v>0.93750898705920704</v>
       </c>
       <c r="W23" s="3">
-        <v>9.6081459132535393E-2</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>0.64101123420491002</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>0.31691085878444702</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>0.67509642556461102</v>
-      </c>
-      <c r="AB23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>2.0199418246720402</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>2.55239861662595</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>0.75276616020587594</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>0.93750898705920704</v>
-      </c>
-      <c r="AG23" s="3">
         <v>2.5638186788913999</v>
       </c>
-      <c r="AH23" s="3">
+      <c r="X23" s="3">
         <v>3.2434032856136801</v>
       </c>
-      <c r="AI23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ23" s="3">
-        <v>0.34807530072638998</v>
-      </c>
-      <c r="AK23" s="3">
-        <v>2.9697122045106998E-3</v>
-      </c>
-      <c r="AL23" s="3">
-        <v>9.3334452621842298E-2</v>
-      </c>
-      <c r="AM23" s="3">
-        <v>0.45600774534002803</v>
-      </c>
-      <c r="AN23" s="3">
-        <v>5.02609538951966E-3</v>
-      </c>
-      <c r="AO23" s="3">
-        <v>0.159842999603931</v>
-      </c>
-      <c r="AP23" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="24" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
         <v>0.460000650512562</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5.1033720825721498E-3</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.19740300973371</v>
       </c>
       <c r="H24" s="3">
         <v>0.26232787166267302</v>
       </c>
       <c r="I24" s="3">
-        <v>1.5557969268599301E-3</v>
-      </c>
-      <c r="J24" s="3">
-        <v>8.7673763528328105E-2</v>
+        <v>0.55608272259862601</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
-        <v>0.55608272259862601</v>
+        <v>0.13682921962740099</v>
       </c>
       <c r="L24" s="3">
-        <v>9.5440149869375299E-3</v>
+        <v>6.5850652868033002E-2</v>
       </c>
       <c r="M24" s="3">
-        <v>0.25718878270303602</v>
+        <v>0.197418938458748</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O24" s="3">
-        <v>0.13682921962740099</v>
+        <v>0.40591295966385899</v>
       </c>
       <c r="P24" s="3">
-        <v>3.7472915314417802E-3</v>
+        <v>0.31691085878444702</v>
       </c>
       <c r="Q24" s="3">
-        <v>5.25585827030325E-2</v>
-      </c>
-      <c r="R24" s="3">
-        <v>6.5850652868033002E-2</v>
+        <v>0.67509642556461102</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S24" s="3">
-        <v>7.8501317932109095E-4</v>
+        <v>0.75196592048618804</v>
       </c>
       <c r="T24" s="3">
-        <v>1.6928548406183502E-2</v>
+        <v>1.0802379195467999</v>
       </c>
       <c r="U24" s="3">
-        <v>0.197418938458748</v>
+        <v>0.75276616020587594</v>
       </c>
       <c r="V24" s="3">
-        <v>8.8244388107873908E-3</v>
+        <v>0.93750898705920704</v>
       </c>
       <c r="W24" s="3">
-        <v>9.6081459132535393E-2</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0.40591295966385899</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0.31691085878444702</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>0.67509642556461102</v>
-      </c>
-      <c r="AB24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>0.75196592048618804</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>1.0802379195467999</v>
-      </c>
-      <c r="AE24" s="3">
-        <v>0.75276616020587594</v>
-      </c>
-      <c r="AF24" s="3">
-        <v>0.93750898705920704</v>
-      </c>
-      <c r="AG24" s="3">
         <v>2.5638186788913999</v>
       </c>
-      <c r="AH24" s="3">
+      <c r="X24" s="3">
         <v>3.2434032856136801</v>
       </c>
-      <c r="AI24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ24" s="3">
-        <v>0.255203159908371</v>
-      </c>
-      <c r="AK24" s="3">
-        <v>7.2701758684235399E-3</v>
-      </c>
-      <c r="AL24" s="3">
-        <v>6.0269606945953298E-2</v>
-      </c>
-      <c r="AM24" s="3">
-        <v>0.45600774534002803</v>
-      </c>
-      <c r="AN24" s="3">
-        <v>5.02609538951966E-3</v>
-      </c>
-      <c r="AO24" s="3">
-        <v>0.159842999603931</v>
-      </c>
-      <c r="AP24" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="25" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="3">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="3">
         <v>0.26232787166267302</v>
       </c>
+      <c r="K25" s="3">
+        <v>6.5850652868033002E-2</v>
+      </c>
       <c r="O25" s="3">
-        <v>6.5850652868033002E-2</v>
-      </c>
-      <c r="Y25" s="3">
         <v>0.31691085878444702</v>
       </c>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AC25" s="3">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="S25" s="3">
         <v>0.75276616020587594</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="T25" s="3">
         <v>0.93750898705920704</v>
       </c>
     </row>
-    <row r="27" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="3">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="G27" s="3">
         <v>0.56711635022120499</v>
       </c>
+      <c r="K27" s="3">
+        <v>0.20072468314960301</v>
+      </c>
       <c r="O27" s="3">
-        <v>0.20072468314960301</v>
-      </c>
-      <c r="Y27" s="3">
         <v>0.422050904505267</v>
       </c>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AC27" s="3">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="S27" s="3">
         <v>3.0325693572126</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="T27" s="3">
         <v>2.7459233151696099</v>
       </c>
-      <c r="AJ27" s="3">
-        <v>0.52103716400854505</v>
-      </c>
     </row>
-    <row r="28" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="3">
-        <v>0</v>
+      <c r="C28" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="3">
         <v>0.436633706918991</v>
-      </c>
-      <c r="F28" s="3">
-        <v>4.1358516812074596E-3</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0.17657957870586999</v>
       </c>
       <c r="H28" s="3">
         <v>0.29783397296130998</v>
       </c>
       <c r="I28" s="3">
-        <v>2.3270839274647302E-3</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0.11138919188055001</v>
+        <v>0.56711635022120499</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K28" s="3">
-        <v>0.56711635022120499</v>
+        <v>0.13036011258097299</v>
       </c>
       <c r="L28" s="3">
-        <v>7.8862238279241107E-3</v>
+        <v>8.1691213733233597E-2</v>
       </c>
       <c r="M28" s="3">
-        <v>0.25580096334289798</v>
+        <v>0.20072468314960301</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O28" s="3">
-        <v>0.13036011258097299</v>
+        <v>0.38484862139775999</v>
       </c>
       <c r="P28" s="3">
-        <v>3.2123982531581498E-3</v>
+        <v>0.16223872159486299</v>
       </c>
       <c r="Q28" s="3">
-        <v>4.8214133056636597E-2</v>
-      </c>
-      <c r="R28" s="3">
-        <v>8.1691213733233597E-2</v>
+        <v>0.422050904505267</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S28" s="3">
-        <v>1.3312408979175999E-3</v>
+        <v>2.1430526517004398</v>
       </c>
       <c r="T28" s="3">
-        <v>2.73074923320074E-2</v>
+        <v>2.0405854311290899</v>
       </c>
       <c r="U28" s="3">
-        <v>0.20072468314960301</v>
+        <v>1.44156004865967</v>
       </c>
       <c r="V28" s="3">
-        <v>7.1372328031983198E-3</v>
+        <v>1.47685447575248</v>
       </c>
       <c r="W28" s="3">
-        <v>9.8592023430013095E-2</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>0.38484862139775999</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>0.16223872159486299</v>
-      </c>
-      <c r="AA28" s="3">
-        <v>0.422050904505267</v>
-      </c>
-      <c r="AB28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC28" s="3">
-        <v>2.1430526517004398</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>2.0405854311290899</v>
-      </c>
-      <c r="AE28" s="3">
-        <v>1.44156004865967</v>
-      </c>
-      <c r="AF28" s="3">
-        <v>1.47685447575248</v>
-      </c>
-      <c r="AG28" s="3">
         <v>3.0325693572126</v>
       </c>
-      <c r="AH28" s="3">
+      <c r="X28" s="3">
         <v>2.7459233151696099</v>
       </c>
-      <c r="AI28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ28" s="3">
-        <v>0.32768587823527701</v>
-      </c>
-      <c r="AK28" s="3">
-        <v>4.0005230294084199E-3</v>
-      </c>
-      <c r="AL28" s="3">
-        <v>8.2459871136998902E-2</v>
-      </c>
-      <c r="AM28" s="3">
-        <v>0.52103716400854505</v>
-      </c>
-      <c r="AN28" s="3">
-        <v>1.1851171385175E-2</v>
-      </c>
-      <c r="AO28" s="3">
-        <v>0.20827154963494601</v>
-      </c>
-      <c r="AP28" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="29" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3">
         <v>0.42234969652038901</v>
-      </c>
-      <c r="F29" s="3">
-        <v>4.3568528772771802E-3</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0.16556385387699399</v>
       </c>
       <c r="H29" s="3">
         <v>0.29783397296130998</v>
       </c>
       <c r="I29" s="3">
-        <v>2.3270839274647302E-3</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0.11138919188055001</v>
+        <v>0.56711635022120499</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
-        <v>0.56711635022120499</v>
+        <v>0.13559161923122501</v>
       </c>
       <c r="L29" s="3">
-        <v>7.8862238279241107E-3</v>
+        <v>8.1691213733233597E-2</v>
       </c>
       <c r="M29" s="3">
-        <v>0.25580096334289798</v>
+        <v>0.20072468314960301</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O29" s="3">
-        <v>0.13559161923122501</v>
+        <v>0.29360858690015401</v>
       </c>
       <c r="P29" s="3">
-        <v>3.6698798205706601E-3</v>
+        <v>0.16223872159486299</v>
       </c>
       <c r="Q29" s="3">
-        <v>4.5333412833455697E-2</v>
-      </c>
-      <c r="R29" s="3">
-        <v>8.1691213733233597E-2</v>
+        <v>0.422050904505267</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S29" s="3">
-        <v>1.3312408979175999E-3</v>
+        <v>1.60128681513828</v>
       </c>
       <c r="T29" s="3">
-        <v>2.73074923320074E-2</v>
+        <v>1.65326834214623</v>
       </c>
       <c r="U29" s="3">
-        <v>0.20072468314960301</v>
+        <v>1.44156004865967</v>
       </c>
       <c r="V29" s="3">
-        <v>7.1372328031983198E-3</v>
+        <v>1.47685447575248</v>
       </c>
       <c r="W29" s="3">
-        <v>9.8592023430013095E-2</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0.29360858690015401</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>0.16223872159486299</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>0.422050904505267</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC29" s="3">
-        <v>1.60128681513828</v>
-      </c>
-      <c r="AD29" s="3">
-        <v>1.65326834214623</v>
-      </c>
-      <c r="AE29" s="3">
-        <v>1.44156004865967</v>
-      </c>
-      <c r="AF29" s="3">
-        <v>1.47685447575248</v>
-      </c>
-      <c r="AG29" s="3">
         <v>3.0325693572126</v>
       </c>
-      <c r="AH29" s="3">
+      <c r="X29" s="3">
         <v>2.7459233151696099</v>
       </c>
-      <c r="AI29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ29" s="3">
-        <v>0.28665405286312501</v>
-      </c>
-      <c r="AK29" s="3">
-        <v>3.4356294693223101E-3</v>
-      </c>
-      <c r="AL29" s="3">
-        <v>6.2755087309841098E-2</v>
-      </c>
-      <c r="AM29" s="3">
-        <v>0.52103716400854505</v>
-      </c>
-      <c r="AN29" s="3">
-        <v>1.1851171385175E-2</v>
-      </c>
-      <c r="AO29" s="3">
-        <v>0.20827154963494601</v>
-      </c>
-      <c r="AP29" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="3">
+      <c r="G30" s="3">
         <v>0.29783397296130998</v>
       </c>
+      <c r="K30" s="3">
+        <v>8.1691213733233597E-2</v>
+      </c>
       <c r="O30" s="3">
-        <v>8.1691213733233597E-2</v>
-      </c>
-      <c r="Y30" s="3">
         <v>0.16223872159486299</v>
       </c>
-      <c r="AC30" s="3">
+      <c r="S30" s="3">
         <v>1.44156004865967</v>
       </c>
-      <c r="AD30" s="3">
+      <c r="T30" s="3">
         <v>1.47685447575248</v>
       </c>
     </row>
